--- a/biology/Zoologie/Carpophage_à_cire_rouge/Carpophage_à_cire_rouge.xlsx
+++ b/biology/Zoologie/Carpophage_à_cire_rouge/Carpophage_à_cire_rouge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Carpophage_%C3%A0_cire_rouge</t>
+          <t>Carpophage_à_cire_rouge</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ducula rubricera
 Le Carpophage à cire rouge (Ducula rubricera) est une espèce d'oiseau de la famille des Columbidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Carpophage_%C3%A0_cire_rouge</t>
+          <t>Carpophage_à_cire_rouge</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure 38 à 45 cm de longueur pour une masse de 630 à 720 g.
 La tête et le haut de la poitrine sont rose mauve pâle, le bas de cette dernière est rose plus foncé. La nuque est gris argenté pâle. Le manteau, les couvertures alaires et le croupion sont vert doré et bronze métallique. Les rémiges primaires sont bleu noirâtre et le dessous des ailes gris sombre. Le ventre, les flancs et les sous-caudales sont châtain. Les iris sont rouge foncé. Le bec est noir avec une protubérance rouge à la base de la mandibule supérieure. Les pattes sont pourpres.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Carpophage_%C3%A0_cire_rouge</t>
+          <t>Carpophage_à_cire_rouge</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce fréquente les forêts primaires et secondaires.
 </t>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Carpophage_%C3%A0_cire_rouge</t>
+          <t>Carpophage_à_cire_rouge</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau se nourrit de fruits dans la canopée des arbres, le plus souvent seul ou en couple, mais parfois en groupes lorsque la nourriture est abondante.
 </t>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Carpophage_%C3%A0_cire_rouge</t>
+          <t>Carpophage_à_cire_rouge</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,7 +626,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau constitue une super-espèce avec le Carpophage cuivré.
 </t>
@@ -621,7 +641,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Carpophage_%C3%A0_cire_rouge</t>
+          <t>Carpophage_à_cire_rouge</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -639,7 +659,9 @@
           <t>Répartition et sous-espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Il est représenté par deux sous-espèces :
 Ducula rubricera rubricera (Bonaparte, 1854) : archipel Bismarck ;
